--- a/biology/Médecine/Alfred_Goldscheider/Alfred_Goldscheider.xlsx
+++ b/biology/Médecine/Alfred_Goldscheider/Alfred_Goldscheider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Goldscheider, né en 1858 à Sommerfeld, arrondissement de Crossen-sur-l'Oder dans la province de Brandebourg, mort en 1935, est un neurologue allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Goldscheider reçoit sa formation médicale à l'institut médico-chirurgical Friedrich-Wilhelm de Berlin (une école de médecine militaire surnommée « la Pépinière ») et passe les sept années suivantes comme médecin militaire et assistant du physiologiste Emil du Bois-Reymond (1818-1896).
 Plus tard, il dirige l'hôpital de Moabit, puis enseigne à l'université de Berlin. De 1906 à 1910, il dirige l'hôpital Rudolf Virchow.
@@ -543,10 +557,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goldscheider est surtout connu pour ses recherches sur le système somatosensoriel, notamment les thermorécepteurs cutanés et leurs localisations en de petites régions circonscrites punctiformes sur la peau électivement sensibles soit au froid, soit à la chaleur. Il s'est intéressé également aux zones cutanées sensibles au toucher, cherchant à distinguer la sensation douloureuse de celle de démangeaison[1].
-À la fin des années 1890 Goldscheider collabore avec son collègue Edward Flatau, pour étudier la structure des neurones et leurs modifications sous l'effet de différents stimuli[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldscheider est surtout connu pour ses recherches sur le système somatosensoriel, notamment les thermorécepteurs cutanés et leurs localisations en de petites régions circonscrites punctiformes sur la peau électivement sensibles soit au froid, soit à la chaleur. Il s'est intéressé également aux zones cutanées sensibles au toucher, cherchant à distinguer la sensation douloureuse de celle de démangeaison.
+À la fin des années 1890 Goldscheider collabore avec son collègue Edward Flatau, pour étudier la structure des neurones et leurs modifications sous l'effet de différents stimuli.
 Il décrit également une maladie dermatologique,  l'épidermolyse bulleuse, parfois désignée comme la « maladie de Goldscheider ».
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Die Lehre von den specifischen Energieen der Sinnesnerven, Berlin, Hirschwald, 1881
 Eine neue Methode der Temperatursinnprüfung, 1887
@@ -589,10 +607,44 @@
 Anleitung zur Übungs-Behandlung der Ataxie, 1899
 Diagnostik der Krankheiten des Nervensystems : eine Anleitung zur Untersuchung Nervenkranker, 1903 — 53 figures.
 (avec Ernst von Leyden) Die Erkrankungen des Rückenmarkes und der Medulla oblongata, 1903
-Das Schmerzproblem, 1920[3]
-Listes de publications en ligne
-Deutsche digitale Bibliothek : https://www.deutsche-digitale-bibliothek.de/person/gnd/117548863/
-Worldcat[4] : http://www.worldcat.org/search?q=au%3AAlfred+Goldscheider&amp;fq=x0%3Abook+%2B+x4%3Adigital&amp;qt=advanced&amp;dblist=638</t>
+Das Schmerzproblem, 1920</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alfred_Goldscheider</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_Goldscheider</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Listes de publications en ligne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deutsche digitale Bibliothek : https://www.deutsche-digitale-bibliothek.de/person/gnd/117548863/
+Worldcat : http://www.worldcat.org/search?q=au%3AAlfred+Goldscheider&amp;fq=x0%3Abook+%2B+x4%3Adigital&amp;qt=advanced&amp;dblist=638</t>
         </is>
       </c>
     </row>
